--- a/Daily Work/5주차 (2023.04.07)/Layout SetUp.xlsx
+++ b/Daily Work/5주차 (2023.04.07)/Layout SetUp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\CapstoneDesign\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A9D87-A2DB-47A7-8A84-8196B50C23F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428BD5DD-79B2-4B4C-A469-68264E07A2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,32 +911,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>서식 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이메일, 지원하기 버튼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">기능 2
 </t>
     </r>
@@ -1199,33 +1173,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>서식 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-개발자 블록 4열
-이미지, 이름, 직무 * 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>기능 2</t>
     </r>
     <r>
@@ -1291,33 +1238,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-그룹 블록 3열
-이미지, 이름, 설명, 조회수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서식 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 스토리 블록 3열
 이미지, 제목, 작성자, 조회수, </t>
     </r>
@@ -1358,34 +1278,6 @@
       <t xml:space="preserve">
 스토리 블록 클릭시
 스토리 내부 페이지로 이동 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">서식 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이미지, 이름, 이메일
-직무1, 직무2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2075,6 +1967,136 @@
       <t xml:space="preserve">
 경력무관, 신입, 1~3 4~6 7~9
 10년 이상으로 분할</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서식 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+그룹 블록 4열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이미지, 이름, 설명, 북마크</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서식 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+개발자 블록 4열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이미지, 이름,  설명, 북마크</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">서식 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미지, 이름, 이메일
+경력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서식 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+지원하기 버튼</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2291,7 +2313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2441,9 +2463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,7 +2751,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="X25" sqref="X25:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2858,12 +2877,12 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="32"/>
       <c r="S4" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="32"/>
       <c r="X4" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="22"/>
@@ -2957,7 +2976,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="22"/>
       <c r="X7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="4"/>
@@ -3021,17 +3040,17 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
@@ -3105,7 +3124,7 @@
       <c r="Q13" s="39"/>
       <c r="T13" s="39"/>
       <c r="X13" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="21"/>
       <c r="Z13" s="22"/>
@@ -3118,7 +3137,7 @@
       <c r="Q14" s="40"/>
       <c r="T14" s="40"/>
       <c r="W14" s="39"/>
-      <c r="X14" s="51"/>
+      <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="25"/>
     </row>
@@ -3136,17 +3155,17 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
       <c r="J16" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="32"/>
@@ -3161,7 +3180,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="32"/>
       <c r="S16" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T16" s="31"/>
       <c r="U16" s="32"/>
@@ -3187,8 +3206,8 @@
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
       <c r="W17" s="40"/>
-      <c r="X17" s="52" t="s">
-        <v>77</v>
+      <c r="X17" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="22"/>
@@ -3213,7 +3232,7 @@
       <c r="T18" s="37"/>
       <c r="U18" s="38"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="51"/>
+      <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="25"/>
     </row>
@@ -3244,7 +3263,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="22"/>
       <c r="S19" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T19" s="21"/>
       <c r="U19" s="22"/>
@@ -3294,30 +3313,30 @@
       <c r="T21" s="27"/>
       <c r="U21" s="28"/>
       <c r="W21" s="40"/>
-      <c r="X21" s="52" t="s">
-        <v>76</v>
+      <c r="X21" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="Y21" s="21"/>
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D22" s="20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="20" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
       <c r="J22" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N22" s="21"/>
       <c r="O22" s="22"/>
@@ -3327,12 +3346,12 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="22"/>
       <c r="S22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="4"/>
       <c r="W22" s="40"/>
-      <c r="X22" s="51"/>
+      <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="25"/>
     </row>
@@ -3393,12 +3412,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
       <c r="J25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
       <c r="M25" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="4"/>
@@ -3413,8 +3432,8 @@
       <c r="T25" s="3"/>
       <c r="U25" s="4"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="52" t="s">
-        <v>78</v>
+      <c r="X25" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="Y25" s="21"/>
       <c r="Z25" s="22"/>
@@ -3439,7 +3458,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
       <c r="W26" s="41"/>
-      <c r="X26" s="51"/>
+      <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="25"/>
     </row>
@@ -3468,12 +3487,12 @@
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
@@ -3484,7 +3503,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
       <c r="S28" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="4"/>
@@ -3523,7 +3542,7 @@
       <c r="E31" s="39"/>
       <c r="H31" s="39"/>
       <c r="J31" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="31"/>
       <c r="L31" s="32"/>
@@ -3558,17 +3577,17 @@
     </row>
     <row r="34" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="32"/>
       <c r="J34" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
@@ -3578,7 +3597,7 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="32"/>
       <c r="S34" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T34" s="31"/>
       <c r="U34" s="32"/>
@@ -3619,17 +3638,17 @@
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D37" s="20" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
       <c r="G37" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
       <c r="J37" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="13"/>
@@ -3639,7 +3658,7 @@
       <c r="Q37" s="21"/>
       <c r="R37" s="22"/>
       <c r="S37" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="22"/>
@@ -3680,12 +3699,12 @@
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D40" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
       <c r="G40" s="20" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
@@ -3695,7 +3714,7 @@
       <c r="Q40" s="21"/>
       <c r="R40" s="22"/>
       <c r="S40" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T40" s="21"/>
       <c r="U40" s="22"/>
@@ -3730,12 +3749,12 @@
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
@@ -3745,7 +3764,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="4"/>
       <c r="S43" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T43" s="21"/>
       <c r="U43" s="22"/>
@@ -3780,22 +3799,22 @@
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D46" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
       <c r="G46" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13"/>
       <c r="P46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="4"/>
       <c r="S46" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="4"/>
@@ -3830,7 +3849,7 @@
     </row>
     <row r="49" spans="19:21" x14ac:dyDescent="0.3">
       <c r="S49" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="4"/>
@@ -3904,6 +3923,7 @@
     <mergeCell ref="S4:U6"/>
     <mergeCell ref="X4:Z6"/>
     <mergeCell ref="A7:C9"/>
+    <mergeCell ref="A10:C12"/>
     <mergeCell ref="D16:F18"/>
     <mergeCell ref="G16:I18"/>
     <mergeCell ref="D19:F21"/>
@@ -3911,7 +3931,6 @@
     <mergeCell ref="G7:I9"/>
     <mergeCell ref="D7:F9"/>
     <mergeCell ref="G10:I12"/>
-    <mergeCell ref="A10:C12"/>
     <mergeCell ref="D10:F12"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="H13:H15"/>
